--- a/src/test/resources/com/sirion/xls/Sirion Admin Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Sirion Admin Suite.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="202">
   <si>
     <t>TCID</t>
   </si>
@@ -656,15 +656,6 @@
   </si>
   <si>
     <t>English - US</t>
-  </si>
-  <si>
-    <t>English - UK</t>
-  </si>
-  <si>
-    <t>Bi-Monthly (Date)</t>
-  </si>
-  <si>
-    <t>Bi-Monthly (Day)</t>
   </si>
 </sst>
 </file>
@@ -3835,7 +3826,7 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3975,66 +3966,6 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1">
-        <v>5</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1">
-        <v>5</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4042,7 +3973,7 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4096,16 +4027,6 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/com/sirion/xls/Sirion Admin Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Sirion Admin Suite.xlsx
@@ -1755,7 +1755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
